--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,19 +417,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>STE 230</v>
+        <v>SAMIRA TATA</v>
       </c>
       <c r="B2" t="str">
-        <v>2354656</v>
+        <v>D524564</v>
       </c>
       <c r="C2" t="str">
-        <v>354684684165486415348646</v>
+        <v>335463513748543615567464</v>
       </c>
       <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>BMCE</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
         <v>Supervision</v>
@@ -441,36 +441,36 @@
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>15000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>KARIM JALAL</v>
+        <v>NABIL KAMAL</v>
       </c>
       <c r="B3" t="str">
-        <v>P5874857</v>
+        <v>L3578354</v>
       </c>
       <c r="C3" t="str">
-        <v>548748641684867461687153</v>
+        <v>345534544587485743558673</v>
       </c>
       <c r="D3" t="str">
-        <v>FES SUD</v>
+        <v>AGG1</v>
       </c>
       <c r="E3" t="str">
-        <v>BMCE</v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G3" t="str">
-        <v>009/SKSK</v>
+        <v xml:space="preserve">044/LF/FES VILLE </v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
@@ -487,37 +487,37 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SAMIRA TATA</v>
+        <v>KHADIJA LALA</v>
       </c>
       <c r="B4" t="str">
-        <v>D524564</v>
+        <v>K5443645</v>
       </c>
       <c r="C4" t="str">
-        <v>335463513748543615567464</v>
+        <v>354564564324158786713544</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>AG 100</v>
       </c>
       <c r="E4" t="str">
         <v>BP</v>
       </c>
       <c r="F4" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G4" t="str">
-        <v>800/PV FES 1</v>
+        <v xml:space="preserve">044/FES VILLE </v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J4">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="K4">
-        <v>17000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="5">
@@ -537,237 +537,62 @@
         <v>BMCE</v>
       </c>
       <c r="F5" t="str">
-        <v>Logement de fonction</v>
+        <v>Point de vente</v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve">044/LF/FES VILLE </v>
+        <v>800/PV FES 1</v>
       </c>
       <c r="H5" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J5">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="K5">
-        <v>17000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KHADIJA LALA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" t="str">
-        <v>K5443645</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <v>354564564324158786713544</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <v>AG 100</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I6">
-        <v>4800</v>
+        <v>40000</v>
       </c>
       <c r="J6">
-        <v>480</v>
+        <v>6000</v>
       </c>
       <c r="K6">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>NABIL KAMAL</v>
-      </c>
-      <c r="B7" t="str">
-        <v>L3578354</v>
-      </c>
-      <c r="C7" t="str">
-        <v>345534544587485743558673</v>
-      </c>
-      <c r="D7" t="str">
-        <v>AGG1</v>
-      </c>
-      <c r="E7" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>7200</v>
-      </c>
-      <c r="J7">
-        <v>720</v>
-      </c>
-      <c r="K7">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve">MED FARID </v>
-      </c>
-      <c r="B8" t="str">
-        <v>F4767464</v>
-      </c>
-      <c r="C8" t="str">
-        <v>354697496468748943641872</v>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G8" t="str">
-        <v>665/FES 2</v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>15000</v>
-      </c>
-      <c r="J8">
-        <v>2250</v>
-      </c>
-      <c r="K8">
-        <v>12750</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>SAMIRA TATA</v>
-      </c>
-      <c r="B9" t="str">
-        <v>D524564</v>
-      </c>
-      <c r="C9" t="str">
-        <v>335463513748543615567464</v>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G9" t="str">
-        <v>007/SUP TAZA</v>
-      </c>
-      <c r="H9" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I9">
-        <v>10000</v>
-      </c>
-      <c r="J9">
-        <v>1500</v>
-      </c>
-      <c r="K9">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>TRM TEST</v>
-      </c>
-      <c r="B10" t="str">
-        <v>BJ110393</v>
-      </c>
-      <c r="C10" t="str">
-        <v>114987394827349287329292</v>
-      </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G10" t="str">
-        <v>990/PV 01</v>
-      </c>
-      <c r="H10" t="str">
-        <v>trimestrielle</v>
-      </c>
-      <c r="I10">
-        <v>10000</v>
-      </c>
-      <c r="J10">
-        <v>1000</v>
-      </c>
-      <c r="K10">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B11" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C11" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D11" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E11" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F11" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G11" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H11" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I11">
-        <v>112000</v>
-      </c>
-      <c r="J11">
-        <v>13450</v>
-      </c>
-      <c r="K11">
-        <v>98550</v>
+        <v>34000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,16 +417,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SAMIRA TATA</v>
+        <v>JALAL MED</v>
       </c>
       <c r="B2" t="str">
-        <v>D524564</v>
+        <v>J2545456</v>
       </c>
       <c r="C2" t="str">
-        <v>335463513748543615567464</v>
+        <v>265463456416547645654645</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>AGG</v>
       </c>
       <c r="E2" t="str">
         <v>BP</v>
@@ -435,164 +435,129 @@
         <v>Supervision</v>
       </c>
       <c r="G2" t="str">
-        <v>554/SUP FES 1</v>
+        <v>800/SUP 1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="J2">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K2">
-        <v>8500</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NABIL KAMAL</v>
+        <v>ACHENGLI LAILA</v>
       </c>
       <c r="B3" t="str">
-        <v>L3578354</v>
+        <v>J207703</v>
       </c>
       <c r="C3" t="str">
-        <v>345534544587485743558673</v>
+        <v>00101211115087750001201090</v>
       </c>
       <c r="D3" t="str">
-        <v>AGG1</v>
+        <v>Ait souss</v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v>BP Centre Sud</v>
       </c>
       <c r="F3" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve">044/LF/FES VILLE </v>
+        <v xml:space="preserve">901/FES </v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J3">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K3">
-        <v>8500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KHADIJA LALA</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B4" t="str">
-        <v>K5443645</v>
+        <v>BJ36877</v>
       </c>
       <c r="C4" t="str">
-        <v>354564564324158786713544</v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D4" t="str">
-        <v>AG 100</v>
+        <v>AOURIR</v>
       </c>
       <c r="E4" t="str">
-        <v>BP</v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F4" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
+        <v xml:space="preserve">901/LF/FES </v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="J4">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K4">
-        <v>8500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>KARIM JALAL</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" t="str">
-        <v>P5874857</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C5" t="str">
-        <v>548748641684867461687153</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D5" t="str">
-        <v>FES SUD</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <v>BMCE</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <v>800/PV FES 1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I5">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="J5">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K5">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I6">
-        <v>40000</v>
-      </c>
-      <c r="J6">
-        <v>6000</v>
-      </c>
-      <c r="K6">
-        <v>34000</v>
+        <v>17100</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,60 +417,60 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>JALAL MED</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B2" t="str">
-        <v>J2545456</v>
+        <v>BJ36877</v>
       </c>
       <c r="C2" t="str">
-        <v>265463456416547645654645</v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D2" t="str">
-        <v>AGG</v>
+        <v>AOURIR</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F2" t="str">
-        <v>Supervision</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>800/SUP 1</v>
+        <v>220/CASA NORD</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="J2">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K2">
-        <v>7200</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ACHENGLI LAILA</v>
+        <v>JALAL MED</v>
       </c>
       <c r="B3" t="str">
-        <v>J207703</v>
+        <v>J2545456</v>
       </c>
       <c r="C3" t="str">
-        <v>00101211115087750001201090</v>
+        <v>265463456416547645654645</v>
       </c>
       <c r="D3" t="str">
-        <v>Ait souss</v>
+        <v>AGG</v>
       </c>
       <c r="E3" t="str">
-        <v>BP Centre Sud</v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve">901/FES </v>
+        <v>220/LF/CASA NORD</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
@@ -487,77 +487,42 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>CHARIJI ABDELLAH</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>BJ36877</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v>00101211111292695000201732</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v>AOURIR</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>BP CENTRE SUD</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>Logement de fonction</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve">901/LF/FES </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="J4">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="K4">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I5">
-        <v>19000</v>
-      </c>
-      <c r="J5">
-        <v>1900</v>
-      </c>
-      <c r="K5">
-        <v>17100</v>
+        <v>14700</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,252 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ACHENGLI LAILA</v>
+        <v>MOHAMED BADRANE</v>
       </c>
       <c r="B2" t="str">
-        <v>J207703</v>
+        <v>I83603</v>
       </c>
       <c r="C2" t="str">
-        <v>00101211115087750001201090</v>
+        <v>225400000805987601012173</v>
       </c>
       <c r="D2" t="str">
-        <v>AIT SOUSS</v>
+        <v>KHOURIBGA</v>
       </c>
       <c r="E2" t="str">
-        <v>BP CENTRE SUD</v>
+        <v>CA</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>908/DIRECTION REGIONALE SUD</v>
+        <v>605/KHOURIBGA NAHDA</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="J2">
-        <v>3000</v>
+        <v>375</v>
       </c>
       <c r="K2">
-        <v>17000</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NACER YASSINE</v>
+        <v>ZERNAKH ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v>L234567</v>
+        <v>IB19558</v>
       </c>
       <c r="C3" t="str">
-        <v>78017098772736274634834384</v>
+        <v>145101211406073828000084</v>
       </c>
       <c r="D3" t="str">
-        <v>TOUHAMI</v>
+        <v>MARRAKECH BENI MELLAL</v>
       </c>
       <c r="E3" t="str">
-        <v>ATTIJARI WAFA BANK</v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
         <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v>805/KOUTOUBIA</v>
+        <v>052/FKIH BEN SALEH</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="J3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>10200</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ACHENGLI LAILA</v>
+        <v>NOUBAIL MOUNTASSIR</v>
       </c>
       <c r="B4" t="str">
-        <v>J207703</v>
+        <v>Q251990</v>
       </c>
       <c r="C4" t="str">
-        <v>00101211115087750001201090</v>
+        <v>007400000313200019604463</v>
       </c>
       <c r="D4" t="str">
-        <v>AIT SOUSS</v>
+        <v>KHOURIBGA ZELLAKA</v>
       </c>
       <c r="E4" t="str">
-        <v>BP CENTRE SUD</v>
+        <v>AWB</v>
       </c>
       <c r="F4" t="str">
-        <v>Siège</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G4" t="str">
-        <v>900/PATIO</v>
+        <v>905/TADLA OUARDIGHA ZAYANE</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="J4">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="K4">
-        <v>4050</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SOCIETE 1</v>
+        <v>NOUBAIL MOHAMMED</v>
       </c>
       <c r="B5" t="str">
-        <v>354646</v>
+        <v>IR801997</v>
       </c>
       <c r="C5" t="str">
-        <v>54544646446464646464444464</v>
+        <v>007400000313200019604463</v>
       </c>
       <c r="D5" t="str">
-        <v>AGENCE 1</v>
+        <v>KHOURIBGA ZELLAKA</v>
       </c>
       <c r="E5" t="str">
-        <v>BP CENTRE SUD</v>
+        <v>AWB</v>
       </c>
       <c r="F5" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G5" t="str">
-        <v>908/LF/DIRECTION REGIONALE SUD</v>
+        <v>905/TADLA OUARDIGHA ZAYANE</v>
       </c>
       <c r="H5" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>16000</v>
+        <v>6750</v>
       </c>
       <c r="J5">
-        <v>1400</v>
+        <v>675</v>
       </c>
       <c r="K5">
-        <v>14600</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SOCIETE 1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" t="str">
-        <v>354646</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <v>54544646446464646464444464</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <v>AGENCE 1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>BP CENTRE SUD</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>Supervision</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v>001/SUP SUD</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I6">
-        <v>2400</v>
+        <v>32000</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="K6">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>CHARIJI ABDELLAH</v>
-      </c>
-      <c r="B7" t="str">
-        <v>BJ36877</v>
-      </c>
-      <c r="C7" t="str">
-        <v>00101211111292695000201732</v>
-      </c>
-      <c r="D7" t="str">
-        <v>AOURIR</v>
-      </c>
-      <c r="E7" t="str">
-        <v>BP CENTRE SUD</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G7" t="str">
-        <v>389/AOURIR</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>7000</v>
-      </c>
-      <c r="J7">
-        <v>700</v>
-      </c>
-      <c r="K7">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I8">
-        <v>61900</v>
-      </c>
-      <c r="J8">
-        <v>7350</v>
-      </c>
-      <c r="K8">
-        <v>54550</v>
+        <v>30275</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,182 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MOHAMED BADRANE</v>
+        <v>NASIRI HASNAA</v>
       </c>
       <c r="B2" t="str">
-        <v>I83603</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>225400000805987601012173</v>
+        <v>546576878798989898090090</v>
       </c>
       <c r="D2" t="str">
-        <v>KHOURIBGA</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>CA</v>
+        <v>CIH</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>605/KHOURIBGA NAHDA</v>
+        <v>901/CASABLANCA</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>7500</v>
+        <v>8000.01</v>
       </c>
       <c r="J2">
-        <v>375</v>
+        <v>800.01</v>
       </c>
       <c r="K2">
-        <v>7125</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ZERNAKH ABDELLAH</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>IB19558</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>145101211406073828000084</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v>MARRAKECH BENI MELLAL</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>052/FKIH BEN SALEH</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>8000.01</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>800.01</v>
       </c>
       <c r="K3">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>NOUBAIL MOUNTASSIR</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Q251990</v>
-      </c>
-      <c r="C4" t="str">
-        <v>007400000313200019604463</v>
-      </c>
-      <c r="D4" t="str">
-        <v>KHOURIBGA ZELLAKA</v>
-      </c>
-      <c r="E4" t="str">
-        <v>AWB</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G4" t="str">
-        <v>905/TADLA OUARDIGHA ZAYANE</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>6750</v>
-      </c>
-      <c r="J4">
-        <v>675</v>
-      </c>
-      <c r="K4">
-        <v>6075</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>NOUBAIL MOHAMMED</v>
-      </c>
-      <c r="B5" t="str">
-        <v>IR801997</v>
-      </c>
-      <c r="C5" t="str">
-        <v>007400000313200019604463</v>
-      </c>
-      <c r="D5" t="str">
-        <v>KHOURIBGA ZELLAKA</v>
-      </c>
-      <c r="E5" t="str">
-        <v>AWB</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G5" t="str">
-        <v>905/TADLA OUARDIGHA ZAYANE</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>6750</v>
-      </c>
-      <c r="J5">
-        <v>675</v>
-      </c>
-      <c r="K5">
-        <v>6075</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I6">
-        <v>32000</v>
-      </c>
-      <c r="J6">
-        <v>1725</v>
-      </c>
-      <c r="K6">
-        <v>30275</v>
+        <v>7200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_10_2022.xlsx
@@ -417,37 +417,37 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>NASIRI HASNAA</v>
+        <v>JEMAA HORMI</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>B219321</v>
       </c>
       <c r="C2" t="str">
-        <v>546576878798989898090090</v>
+        <v>225400000805987601012173</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>KHOURIBGA</v>
       </c>
       <c r="E2" t="str">
-        <v>CIH</v>
+        <v>CA</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>901/CASABLANCA</v>
+        <v>001/TTT/AV1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>8000.01</v>
+        <v>6000</v>
       </c>
       <c r="J2">
-        <v>800.01</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3">
@@ -476,13 +476,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>8000.01</v>
+        <v>6000</v>
       </c>
       <c r="J3">
-        <v>800.01</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7200</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
